--- a/ERP_GMEDINA/Content/PlanillasInstitucionesFinancieras/FormatoPredeterminadoDeduccionPlanilla.xlsx
+++ b/ERP_GMEDINA/Content/PlanillasInstitucionesFinancieras/FormatoPredeterminadoDeduccionPlanilla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Vespertina\ERP_GMEDINA\Content\FormatoPlanillaInstitucionesFinancieras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAB02\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673AA500-0A55-4AAD-90B8-5BD66AEC098C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B8E6A4-4A8D-4C47-B24C-660C04F5679E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Detalle" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Nombres</t>
   </si>
@@ -35,13 +35,46 @@
   </si>
   <si>
     <t>Monto</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Incluir para el ISR</t>
+  </si>
+  <si>
+    <t>1558200003658</t>
+  </si>
+  <si>
+    <t>gfhgf</t>
+  </si>
+  <si>
+    <t>gfd</t>
+  </si>
+  <si>
+    <t>FDGD</t>
+  </si>
+  <si>
+    <t>7876989869956</t>
+  </si>
+  <si>
+    <t>HGHGG</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>FFFQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -74,6 +107,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -95,7 +134,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -277,11 +316,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -303,9 +381,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -340,12 +415,25 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -778,11 +866,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD32D740-C6A3-4126-BE20-B91A7C0AF9FA}">
-  <dimension ref="A1:E30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -792,229 +880,298 @@
     <col min="3" max="3" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
+      <c r="F1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3">
+        <v>434334</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6">
+        <v>65656</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="20"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="22"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="22"/>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="22"/>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="22"/>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="22"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="22"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="22"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="22"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="23"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="22"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="22"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="22"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="22"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="23"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="22"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="22"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="23"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="22"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="22"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="22"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="23"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="22"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="23"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="22"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="23"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="22"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="23"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="22"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="23"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="22"/>
-    </row>
-    <row r="30" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" s="20"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" s="21"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="19"/>
+      <c r="H6" s="31"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" s="21"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" s="21"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="21"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="21"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="21"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" s="21"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" s="21"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" s="21"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" s="21"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" s="21"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="21"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="21"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="21"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="21"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="21"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="21"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="21"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="21"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="19"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="21"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="19"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="21"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="19"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="21"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="19"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="21"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="19"/>
+    </row>
+    <row r="30" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="30"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F30" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>$AB$1:$AB$2</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.78431372549019618" right="0.78431372549019618" top="0.98039215686274517" bottom="0.98039215686274517" header="0.50980392156862753" footer="0.50980392156862753"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
